--- a/biology/Zoologie/Ischnocnema/Ischnocnema.xlsx
+++ b/biology/Zoologie/Ischnocnema/Ischnocnema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ischnocnema est un genre d'amphibiens de la famille des Brachycephalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ischnocnema est un genre d'amphibiens de la famille des Brachycephalidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 33 espèces de ce genre se rencontrent au Brésil et en Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 33 espèces de ce genre se rencontrent au Brésil et en Argentine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 novembre 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 novembre 2016) :
 Ischnocnema abdita Canedo &amp; Pimenta, 2010
 Ischnocnema bolbodactyla (Lutz, 1925)
 Ischnocnema concolor Targino, Costa &amp; Carvalho-e-Silva, 2009
@@ -605,9 +621,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre vient du grec ischnos, fin, faible, de kneme, le mollet de la jambe, en référence à l'aspect des espèces de ce genre[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre vient du grec ischnos, fin, faible, de kneme, le mollet de la jambe, en référence à l'aspect des espèces de ce genre.
 </t>
         </is>
       </c>
@@ -636,7 +654,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Reinhardt &amp; Lütken, 1862 "1861" : Bidrag til Kundskab om Brasiliens Padder og Krybdyr. Förste Afdeling Paddern og Oglerne. Videnskabelige meddelelser fra den Naturhistoriske forening i Kjöbenhavn, vol. 1861, no 10/15, p. 143-242 (texte intégral).</t>
         </is>
